--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal adenocarcinoma_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal adenocarcinoma_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +467,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for solids, is a common symptom of esophageal adenocarcinoma due to obstruction or infiltration of the esophagus.</t>
+          <t>Progressive dysphagia, especially for solids, is a classic symptom of esophageal adenocarcinoma due to tumor growth causing obstruction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hoarseness can indicate involvement of the recurrent laryngeal nerve, which is often affected in advanced esophageal cancer; its absence makes esophageal adenocarcinoma less likely.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders rather than esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -488,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is a significant indicator of malignancy, including esophageal adenocarcinoma, as it often reflects decreased intake due to dysphagia or increased metabolic demands.</t>
+          <t>Unintentional weight loss is a common symptom in esophageal adenocarcinoma due to difficulty eating and cancer-related metabolic changes.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A persistent cough can be associated with esophageal cancer due to aspiration or irritation; its absence suggests a lower likelihood of the disease.</t>
+          <t>Telangiectasias are typically associated with systemic sclerosis or other connective tissue diseases, not esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Long-standing reflux (duration of years) is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux disease (GERD) is a known risk factor for the development of esophageal adenocarcinoma, making this finding relevant.</t>
+          <t>Chronic gastroesophageal reflux disease (GERD) is a known risk factor for esophageal adenocarcinoma, often leading to Barrett's esophagus, a precursor to cancer.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While nausea and vomiting can occur with esophageal cancer, their absence may indicate that the disease is less likely, especially in the early stages.</t>
+          <t>This symptom is more indicative of a rheumatologic condition rather than esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The failure of antacids to alleviate symptoms may indicate a more serious underlying condition such as esophageal adenocarcinoma, as these patients often do not respond to typical GERD treatments.</t>
+          <t>Chronic heartburn is indicative of GERD, which is associated with an increased risk of developing esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Shortness of breath can occur with advanced esophageal cancer due to metastasis or obstruction; its absence suggests a lower likelihood of advanced disease.</t>
+          <t>Pain relief with regurgitation is more characteristic of GERD or esophageal motility disorders rather than esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Antacids no longer providing relief is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Odynophagia can occur in esophageal adenocarcinoma due to inflammation or obstruction, making it a concerning symptom.</t>
+          <t>The ineffectiveness of antacids suggests a progression from GERD to a more serious condition like esophageal adenocarcinoma, where acid suppression is insufficient.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Intermittent temporal pattern (not constant) of symptoms is absent.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A constant pattern of symptoms is more typical of malignancy; the absence of an intermittent pattern may suggest a less serious condition.</t>
+          <t>Non-progressive dysphagia is less typical of esophageal adenocarcinoma, which usually presents with progressive dysphagia.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esophageal adenocarcinoma is more common in males, but females can still be affected, especially in certain demographics. The presence of a female patient may suggest a less common presentation, but it does not rule out the diagnosis.</t>
+          <t>Esophageal adenocarcinoma is more common in middle-aged individuals.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>absence of obesity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of alcohol use disorder is a strong indicator against esophageal adenocarcinoma, as alcohol consumption is a significant risk factor for this type of cancer.</t>
+          <t>Obesity is a significant risk factor for esophageal adenocarcinoma, and its absence decreases the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esophageal adenocarcinoma is more prevalent in middle-aged individuals, making this demographic factor relevant to the diagnosis.</t>
+          <t>While esophageal adenocarcinoma is more common in males, the presence of a female patient does not strongly argue against the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is another major risk factor for esophageal adenocarcinoma, and its absence strongly suggests a lower likelihood of the disease.</t>
+          <t>Type 2 diabetes is associated with an increased risk of esophageal adenocarcinoma, so its absence is a negative indicator.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked to esophageal adenocarcinoma, the presence of hypertension (which amlodipine treats) can be associated with various comorbidities that may increase cancer risk.</t>
+          <t>Amlodipine use is not directly linked to esophageal adenocarcinoma, but its presence indicates management of conditions that could be associated with risk factors.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure to the thoracic region is a known risk factor for esophageal cancer, and its absence supports a lower risk for esophageal adenocarcinoma.</t>
+          <t>Hypertension is often associated with metabolic syndrome, which can increase the risk of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>absence of alcohol use disorder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use is a risk factor for esophageal cancer, its absence does not rule out the diagnosis, but it does suggest a lower risk profile.</t>
+          <t>While alcohol use is more strongly associated with squamous cell carcinoma, its absence does not strongly argue against adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>absence of prior treatment with radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease may indicate a lower overall cardiovascular risk profile, which can correlate with a lower risk for esophageal adenocarcinoma.</t>
+          <t>Radiation exposure is a risk factor for esophageal cancer, so its absence is a negative indicator.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>absence of nicotine dependence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use, the absence of nicotine dependence suggests a lower risk for esophageal adenocarcinoma, but does not eliminate the possibility of the diagnosis.</t>
+          <t>Nicotine dependence is a risk factor for esophageal cancer, but its absence does not strongly argue against adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity is absent</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Obesity is a known risk factor for esophageal adenocarcinoma, and its absence further supports a lower likelihood of the diagnosis.</t>
+          <t>Recent medication changes could indicate management of new or worsening conditions, potentially related to cancer symptoms.</t>
         </is>
       </c>
     </row>
@@ -768,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use is a significant risk factor for Esophageal adenocarcinoma, as it is associated with increased carcinogenic exposure to the esophagus.</t>
+          <t>Prior tobacco use is a known risk factor for esophageal adenocarcinoma, as tobacco can cause changes in the esophageal lining that may lead to cancer.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol consumption is a known risk factor for Esophageal adenocarcinoma; its absence significantly lowers the likelihood of the disease.</t>
+          <t>The absence of current tobacco use is a strong factor against esophageal adenocarcinoma, as ongoing tobacco use is a significant risk factor for the disease.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can contribute to behaviors that increase the risk of Esophageal adenocarcinoma, such as poor dietary choices or increased tobacco use.</t>
+          <t>While not a direct risk factor, social stress can contribute to behaviors or conditions that increase cancer risk, such as poor diet or increased alcohol consumption, which are associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a strong risk factor for Esophageal adenocarcinoma; its absence suggests a lower risk for the disease.</t>
+          <t>The absence of a family history of cancer reduces the likelihood of esophageal adenocarcinoma, as genetic predisposition can play a role in cancer development.</t>
         </is>
       </c>
     </row>
@@ -812,61 +813,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to other health issues, including cancers.</t>
+          <t>Although not directly related to esophageal adenocarcinoma, a family history of cardiovascular issues may indicate shared lifestyle factors that could also increase cancer risk.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Recent travel may expose individuals to different environmental factors; its absence suggests no additional risk factors for Esophageal adenocarcinoma.</t>
+          <t>The absence of alcohol use is a factor against esophageal adenocarcinoma, as alcohol is a known risk factor for the disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Family history of cancer is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of a family history of cancer does not strongly support the diagnosis, but it does not rule it out either, as esophageal adenocarcinoma can occur sporadically.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absence of autoimmune diseases like Rheumatoid Arthritis may suggest a lower risk for certain cancers, but does not directly support Esophageal adenocarcinoma.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Recent medical procedure is absent.</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures may indicate a lack of interventions that could lead to complications or increased cancer risk.</t>
+          <t>While not directly related to esophageal adenocarcinoma, the absence of autoimmune conditions in the family may suggest a lower overall genetic predisposition to various diseases.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of a family history of cancer may suggest a lower genetic predisposition to Esophageal adenocarcinoma, but does not rule it out.</t>
+          <t>The absence of alcohol use does not support the diagnosis, but it is included here as it does not rule out the possibility of esophageal adenocarcinoma, which can occur without alcohol use.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gestational complications suggests a lower risk profile for various health issues, including cancers.</t>
+          <t>The absence of recent travel does not directly relate to esophageal adenocarcinoma, but it suggests stability in lifestyle factors that might otherwise increase risk.</t>
         </is>
       </c>
     </row>
@@ -919,17 +920,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss is a common symptom in patients with Esophageal adenocarcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Weight loss is a common symptom in patients with esophageal adenocarcinoma due to difficulty swallowing and decreased nutritional intake.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice is a strong indicator against Esophageal adenocarcinoma, as it is often present when the tumor affects the recurrent laryngeal nerve.</t>
+          <t>The absence of epigastric pain may argue against esophageal adenocarcinoma, as pain can be a symptom of advanced disease.</t>
         </is>
       </c>
     </row>
@@ -941,39 +942,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with underlying malignancies, including Esophageal adenocarcinoma, as part of paraneoplastic syndromes.</t>
+          <t>While not specific, telangiectasias can be associated with certain syndromes that increase the risk of esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a cough suggests that there is likely no significant airway involvement or aspiration, which is often seen in Esophageal adenocarcinoma.</t>
+          <t>The absence of neck masses or fullness may argue against esophageal adenocarcinoma, as metastasis to cervical lymph nodes can occur.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Halitosis observed is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While hoarseness can be a symptom of Esophageal adenocarcinoma, its absence does not rule out the diagnosis, but it is a common finding in advanced cases.</t>
+          <t>Although halitosis is not present, its absence does not strongly argue against esophageal adenocarcinoma, as it is not a specific finding.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Obesity by vital signs is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may indicate that there is no significant local invasion or irritation from the tumor, which is often present in Esophageal adenocarcinoma.</t>
+          <t>The absence of obesity may argue against esophageal adenocarcinoma, as obesity is a known risk factor for this cancer.</t>
         </is>
       </c>
     </row>
@@ -985,39 +986,190 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cough can be a symptom of Esophageal adenocarcinoma, particularly if there is aspiration or involvement of surrounding structures, but its absence does not exclude the diagnosis.</t>
+          <t>The absence of cough does not strongly argue against esophageal adenocarcinoma, as cough is not a specific finding for this condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>High blood pressure when checked is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness suggests that there is no significant systemic illness or cachexia, which can be associated with advanced Esophageal adenocarcinoma.</t>
+          <t>The absence of high blood pressure does not strongly argue against esophageal adenocarcinoma, as it is not directly related to the condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent.</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of neck masses may suggest that the disease has not progressed to lymphatic involvement, but does not rule out Esophageal adenocarcinoma.</t>
+          <t>The absence of hoarseness does not strongly argue against esophageal adenocarcinoma, as hoarseness is not a specific finding for this condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While obesity is not directly related to Esophageal adenocarcinoma, its absence may suggest a lack of metabolic syndrome, which is a risk factor for the disease.</t>
+          <t>The absence of weakness may argue against esophageal adenocarcinoma, as weakness can be a symptom of advanced cancer.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Esophageal adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Esophageal adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Esophageal adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Esophageal adenocarcinoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly associated with esophageal adenocarcinoma, but metabolic syndrome, which includes hyperlipidemia, has been linked to an increased risk of esophageal adenocarcinoma.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly argue against esophageal adenocarcinoma, but it rules out autoimmune conditions that could mimic or complicate the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support esophageal adenocarcinoma, but it rules out autoimmune conditions that could mimic or complicate the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS suggests that there is no significant esophageal obstruction or motility disorder, which can be associated with advanced esophageal cancer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS does not directly support esophageal adenocarcinoma, but it suggests that there is no significant esophageal obstruction or motility disorder, which can be associated with advanced cancer.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT suggests there is no interstitial lung disease, which can be a complication or differential diagnosis, but does not directly argue against esophageal adenocarcinoma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly support esophageal adenocarcinoma, but it rules out interstitial lung disease, which can be a complication or differential diagnosis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR suggests there is no significant mediastinal mass or lymphadenopathy, which can be associated with advanced esophageal cancer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not directly support esophageal adenocarcinoma, but it suggests there is no significant mediastinal mass or lymphadenopathy, which can be associated with advanced cancer.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>While hyperlipidemia is part of metabolic syndrome, which can increase cancer risk, it is not a specific finding for esophageal adenocarcinoma and does not strongly argue against it.</t>
         </is>
       </c>
     </row>
